--- a/data/cmsanhtester.xlsx
+++ b/data/cmsanhtester.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
   <si>
     <t>action</t>
   </si>
@@ -358,6 +358,21 @@
   </si>
   <si>
     <t>//a[normalize-space()='Continue to Shipping']</t>
+  </si>
+  <si>
+    <t>//span[@class='aiz-rounded-check flex-shrink-0 mt-1']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Continue to Delivery Info']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Continue to Payment']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Complete Order']</t>
+  </si>
+  <si>
+    <t>Thank You for Your Order!</t>
   </si>
 </sst>
 </file>
@@ -381,7 +396,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,7 +404,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,6 +796,19 @@
       <left style="thin">
         <color rgb="FF1F2329"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1F2329"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
       <right style="thin">
         <color rgb="FF1F2329"/>
       </right>
@@ -799,19 +827,6 @@
       <right style="thin">
         <color rgb="FFDEE0E3"/>
       </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF1F2329"/>
       </top>
@@ -951,12 +966,12 @@
     <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,25 +1096,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1110,43 +1129,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1156,6 +1178,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,7 +1658,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="F13" sqref="F13"/>
@@ -1641,249 +1666,248 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.2857142857143" style="17" customWidth="1"/>
-    <col min="2" max="2" width="30.4285714285714" style="17" customWidth="1"/>
-    <col min="3" max="7" width="40" style="17" customWidth="1"/>
-    <col min="8" max="8" width="46" style="17" customWidth="1"/>
-    <col min="9" max="10" width="40" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="12.6285714285714" style="17"/>
+    <col min="1" max="1" width="18.2857142857143" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.4285714285714" style="19" customWidth="1"/>
+    <col min="3" max="7" width="40" style="19" customWidth="1"/>
+    <col min="8" max="8" width="46" style="19" customWidth="1"/>
+    <col min="9" max="10" width="40" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="12.6285714285714" style="19"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="b">
+      <c r="C6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1930,51 +1954,51 @@
   <cols>
     <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="46.8571428571429" style="10" customWidth="1"/>
+    <col min="3" max="3" width="46.8571428571429" style="12" customWidth="1"/>
     <col min="4" max="11" width="46.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2003,52 +2027,52 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="7" t="s">
         <v>53</v>
       </c>
@@ -2058,218 +2082,218 @@
       <c r="H4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="17" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="29" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="29" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1"/>
+      <c r="C7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="b">
+      <c r="C8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="C11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2319,114 +2343,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="C3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="14.25" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
         <v>83</v>
       </c>
@@ -2447,232 +2471,232 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="29" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="29" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="b">
+      <c r="C14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2708,24 +2732,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="7" t="s">
         <v>95</v>
       </c>
@@ -2734,122 +2758,122 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="b">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="b">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2866,8 +2890,8 @@
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -2894,26 +2918,28 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2921,10 +2947,10 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2935,7 +2961,7 @@
       <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2955,7 +2981,7 @@
       <c r="B8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2975,66 +3001,100 @@
       <c r="B10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://cms.anhtester.com/product/kem-nen-5"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="C4" r:id="rId3" display="customer2025@gmail.com" tooltip="mailto:customer2025@gmail.com"/>
-    <hyperlink ref="C9" r:id="rId4" display="https://cms.anhtester.com/cart"/>
+    <hyperlink ref="C4" r:id="rId2" display="customer2025@gmail.com" tooltip="mailto:customer2025@gmail.com"/>
+    <hyperlink ref="C9" r:id="rId3" display="https://cms.anhtester.com/cart"/>
+    <hyperlink ref="C2" r:id="rId4" display="https://cms.anhtester.com/users/login" tooltip="https://cms.anhtester.com/users/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/cmsanhtester.xlsx
+++ b/data/cmsanhtester.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
   <si>
     <t>action</t>
   </si>
@@ -186,7 +186,7 @@
     <t>//input[@placeholder='Email']</t>
   </si>
   <si>
-    <t>nguyenthanh221515042025@gmail.com</t>
+    <t>{faker_email}</t>
   </si>
   <si>
     <t>namenull@gmail.com</t>
@@ -219,45 +219,42 @@
     <t>999999</t>
   </si>
   <si>
+    <t>//span[@class='aiz-square-check']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Create Account']</t>
+  </si>
+  <si>
+    <t>Registration successful.</t>
+  </si>
+  <si>
+    <t>The name field is required.</t>
+  </si>
+  <si>
+    <t>The email field is required.</t>
+  </si>
+  <si>
+    <t>Email or Phone already exists.</t>
+  </si>
+  <si>
+    <t>Invalid email</t>
+  </si>
+  <si>
+    <t>The password field is required.</t>
+  </si>
+  <si>
+    <t>The password must be at least 6 characters.</t>
+  </si>
+  <si>
+    <t>The password confirmation does not match.</t>
+  </si>
+  <si>
+    <t>Please check this box if you want to continue.</t>
+  </si>
+  <si>
     <t>clickbutton</t>
   </si>
   <si>
-    <t>//span[@class='aiz-square-check']</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='Create Account']</t>
-  </si>
-  <si>
-    <t>verifytextdisplayed</t>
-  </si>
-  <si>
-    <t>Registration successful.</t>
-  </si>
-  <si>
-    <t>The name field is required.</t>
-  </si>
-  <si>
-    <t>The email field is required.</t>
-  </si>
-  <si>
-    <t>Email or Phone already exists.</t>
-  </si>
-  <si>
-    <t>Invalid email</t>
-  </si>
-  <si>
-    <t>The password field is required.</t>
-  </si>
-  <si>
-    <t>The password must be at least 6 characters.</t>
-  </si>
-  <si>
-    <t>The password confirmation does not match.</t>
-  </si>
-  <si>
-    <t>Please check this box if you want to continue.</t>
-  </si>
-  <si>
     <t>//a[@class='text-reset d-inline-block opacity-60 py-2'][normalize-space()='Logout']</t>
   </si>
   <si>
@@ -316,33 +313,6 @@
   </si>
   <si>
     <t>S_2</t>
-  </si>
-  <si>
-    <t>https://cms.anhtester.com/</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>//input[@id='search']</t>
-  </si>
-  <si>
-    <t>Cosy Thanh 2025/03/27-12:16:18 OML</t>
-  </si>
-  <si>
-    <t>cosy</t>
-  </si>
-  <si>
-    <t>verifyelementdisplay</t>
-  </si>
-  <si>
-    <t>//div[@class='search-nothing p-3 text-center fs-16']</t>
-  </si>
-  <si>
-    <t>//a[@href='https://cms.anhtester.com/product/cosy-thanh-20250327-130301-xvs']</t>
-  </si>
-  <si>
-    <t>//a[@href='https://cms.anhtester.com/product/cosy-thanh-20250327-130301-gip']</t>
   </si>
   <si>
     <t>MO_1</t>
@@ -380,10 +350,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -954,16 +924,16 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1102,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1157,9 +1129,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1659,9 +1628,9 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F13" sqref="F13"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1736,10 +1705,10 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="b">
@@ -1776,7 +1745,7 @@
       <c r="H4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="25" t="s">
@@ -1793,31 +1762,31 @@
       <c r="C5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="23" t="b">
@@ -1846,10 +1815,10 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="25" t="s">
         <v>27</v>
       </c>
@@ -1866,7 +1835,7 @@
       <c r="J7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="23"/>
@@ -1893,7 +1862,7 @@
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="25" t="s">
         <v>35</v>
       </c>
@@ -1942,12 +1911,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2026,179 +1995,165 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:11">
+    <row r="3" ht="14.25" spans="1:11">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:11">
       <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>23</v>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="32" t="s">
+      <c r="J6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="13" t="b">
+      <c r="C8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="b">
@@ -2222,69 +2177,83 @@
       <c r="J8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:11">
-      <c r="A10" s="9" t="s">
+    </row>
+    <row r="11" ht="14.25" spans="1:11">
+      <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="14" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="13" t="b">
-        <v>1</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -2295,26 +2264,45 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
     <hyperlink ref="D2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="D4" r:id="rId2" display="namenull@gmail.com" tooltip="mailto:namenull@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId2" display="namenull@gmail.com" tooltip="mailto:namenull@gmail.com"/>
     <hyperlink ref="E2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
     <hyperlink ref="F2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="F4" r:id="rId3" display="customer@example.com" tooltip="mailto:customer@example.com"/>
+    <hyperlink ref="F5" r:id="rId3" display="customer@example.com" tooltip="mailto:customer@example.com"/>
     <hyperlink ref="G2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="G4" r:id="rId4" display="invalid@@gmail..com" tooltip="mailto:invalid@@gmail..com"/>
+    <hyperlink ref="G5" r:id="rId4" display="invalid@@gmail..com" tooltip="mailto:invalid@@gmail..com"/>
     <hyperlink ref="H2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="H4" r:id="rId5" display="nguyenthanh@gmail.com" tooltip="mailto:nguyenthanh@gmail.com"/>
+    <hyperlink ref="H5" r:id="rId5" display="nguyenthanh@gmail.com" tooltip="mailto:nguyenthanh@gmail.com"/>
     <hyperlink ref="I2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="I4" r:id="rId6" display="nguyenthanh1743@example.com" tooltip="mailto:nguyenthanh1743@example.com"/>
+    <hyperlink ref="I5" r:id="rId6" display="nguyenthanh1743@example.com" tooltip="mailto:nguyenthanh1743@example.com"/>
     <hyperlink ref="J2" r:id="rId1" display="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="J4" r:id="rId6" display="nguyenthanh1743@example.com" tooltip="mailto:nguyenthanh1743@example.com"/>
-    <hyperlink ref="C4" r:id="rId7" display="nguyenthanh221515042025@gmail.com" tooltip="mailto:nguyenthanh221515042025@gmail.com"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://cms.anhtester.com/users/login"/>
+    <hyperlink ref="J5" r:id="rId6" display="nguyenthanh1743@example.com" tooltip="mailto:nguyenthanh1743@example.com"/>
+    <hyperlink ref="C5" r:id="rId7" display="{faker_email}" tooltip="mailto:nguyenthanh221515042025@gmail.com"/>
+    <hyperlink ref="C11" r:id="rId8" display="https://cms.anhtester.com/users/login"/>
     <hyperlink ref="K2" r:id="rId1" display="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="K4" r:id="rId9" display="nguyenthanh215515042025@example.com" tooltip="mailto:nguyenthanh215515042025@example.com"/>
+    <hyperlink ref="K5" r:id="rId9" display="nguyenthanh215515042025@example.com" tooltip="mailto:nguyenthanh215515042025@example.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2350,22 +2338,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
@@ -2406,7 +2394,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2421,7 +2409,7 @@
       <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="9"/>
@@ -2452,22 +2440,22 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2475,16 +2463,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2495,10 +2483,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>88</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -2511,18 +2499,18 @@
         <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2536,22 +2524,22 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="b">
@@ -2564,10 +2552,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2583,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="9" t="b">
         <v>1</v>
@@ -2610,22 +2598,22 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2720,7 +2708,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -2739,81 +2727,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9"/>
@@ -2876,10 +2830,6 @@
       <c r="D17" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://cms.anhtester.com/"/>
-    <hyperlink ref="D2" r:id="rId1" display="https://cms.anhtester.com/"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2890,13 +2840,13 @@
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="18.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="48.4285714285714" customWidth="1"/>
   </cols>
@@ -2909,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -2950,7 +2900,7 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2971,7 +2921,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2979,7 +2929,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="b">
         <v>1</v>
@@ -2991,7 +2941,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2999,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="b">
         <v>1</v>
@@ -3010,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="b">
         <v>1</v>
@@ -3021,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="b">
         <v>1</v>
@@ -3032,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="b">
         <v>1</v>
@@ -3043,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="b">
         <v>1</v>
@@ -3054,7 +3004,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>1</v>
@@ -3062,11 +3012,11 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/data/cmsanhtester.xlsx
+++ b/data/cmsanhtester.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="103">
   <si>
     <t>action</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Please check this box if you want to continue.</t>
-  </si>
-  <si>
-    <t>clickbutton</t>
   </si>
   <si>
     <t>//a[@class='text-reset d-inline-block opacity-60 py-2'][normalize-space()='Logout']</t>
@@ -739,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -818,6 +815,32 @@
       <bottom style="thin">
         <color rgb="FF1F2329"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -942,7 +965,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,34 +977,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
@@ -1135,6 +1158,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1628,9 +1663,9 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1745,7 +1780,7 @@
       <c r="H4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="25" t="s">
@@ -1762,23 +1797,23 @@
       <c r="C5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1835,34 +1870,34 @@
       <c r="J7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="25" t="s">
         <v>35</v>
       </c>
@@ -1916,7 +1951,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2087,29 +2122,29 @@
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2120,29 +2155,29 @@
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2265,11 +2300,11 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="C12" s="13" t="b">
         <v>1</v>
@@ -2338,22 +2373,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
@@ -2394,7 +2429,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2409,7 +2444,7 @@
       <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="9"/>
@@ -2440,22 +2475,22 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2463,16 +2498,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2483,10 +2518,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -2499,18 +2534,18 @@
         <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2524,22 +2559,22 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="b">
@@ -2552,10 +2587,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2571,7 +2606,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="9" t="b">
         <v>1</v>
@@ -2598,13 +2633,13 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>71</v>
@@ -2613,7 +2648,7 @@
         <v>70</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2727,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -2859,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -2900,7 +2935,7 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="36" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2921,7 +2956,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2929,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="b">
         <v>1</v>
@@ -2941,7 +2976,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2949,7 +2984,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="b">
         <v>1</v>
@@ -2960,7 +2995,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="b">
         <v>1</v>
@@ -2971,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="b">
         <v>1</v>
@@ -2982,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="b">
         <v>1</v>
@@ -3004,7 +3039,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>1</v>
@@ -3016,7 +3051,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/data/cmsanhtester.xlsx
+++ b/data/cmsanhtester.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="101">
   <si>
     <t>action</t>
   </si>
@@ -174,9 +174,6 @@
     <t>https://cms.anhtester.com/users/registration</t>
   </si>
   <si>
-    <t>entertext</t>
-  </si>
-  <si>
     <t>//input[@placeholder='Full Name']</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
   </si>
   <si>
     <t>{faker_email}</t>
-  </si>
-  <si>
-    <t>namenull@gmail.com</t>
   </si>
   <si>
     <t>customer@example.com</t>
@@ -1128,6 +1122,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1146,9 +1143,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
@@ -1662,56 +1656,56 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.2857142857143" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.4285714285714" style="19" customWidth="1"/>
-    <col min="3" max="7" width="40" style="19" customWidth="1"/>
-    <col min="8" max="8" width="46" style="19" customWidth="1"/>
-    <col min="9" max="10" width="40" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="12.6285714285714" style="19"/>
+    <col min="1" max="1" width="18.2857142857143" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.4285714285714" style="20" customWidth="1"/>
+    <col min="3" max="7" width="40" style="20" customWidth="1"/>
+    <col min="8" max="8" width="46" style="20" customWidth="1"/>
+    <col min="9" max="10" width="40" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="12.6285714285714" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1750,15 +1744,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1788,7 +1782,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1824,28 +1818,28 @@
       <c r="B6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23" t="b">
+      <c r="C6" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1866,8 +1860,8 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="28" t="s">
@@ -1907,11 +1901,11 @@
       <c r="E9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1948,10 +1942,10 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A12" sqref="A12"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2050,77 +2044,77 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:11">
+      <c r="A5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:11">
-      <c r="A5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>52</v>
+      <c r="D5" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="17" t="s">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>23</v>
@@ -2139,7 +2133,7 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J6" s="35" t="s">
         <v>23</v>
@@ -2149,11 +2143,11 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9" t="s">
-        <v>47</v>
+      <c r="A7" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>23</v>
@@ -2172,10 +2166,10 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="35" t="s">
         <v>59</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>61</v>
       </c>
       <c r="K7" s="35" t="s">
         <v>23</v>
@@ -2186,7 +2180,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="9" t="b">
         <v>1</v>
@@ -2219,7 +2213,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="9" t="b">
         <v>1</v>
@@ -2255,31 +2249,31 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:11">
@@ -2304,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="13" t="b">
         <v>1</v>
@@ -2322,22 +2316,22 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
     <hyperlink ref="D2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="D5" r:id="rId2" display="namenull@gmail.com" tooltip="mailto:namenull@gmail.com"/>
     <hyperlink ref="E2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
     <hyperlink ref="F2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="F5" r:id="rId3" display="customer@example.com" tooltip="mailto:customer@example.com"/>
+    <hyperlink ref="F5" r:id="rId2" display="customer@example.com" tooltip="mailto:customer@example.com"/>
     <hyperlink ref="G2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="G5" r:id="rId4" display="invalid@@gmail..com" tooltip="mailto:invalid@@gmail..com"/>
+    <hyperlink ref="G5" r:id="rId3" display="invalid@@gmail..com" tooltip="mailto:invalid@@gmail..com"/>
     <hyperlink ref="H2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="H5" r:id="rId5" display="nguyenthanh@gmail.com" tooltip="mailto:nguyenthanh@gmail.com"/>
+    <hyperlink ref="H5" r:id="rId4" display="nguyenthanh@gmail.com" tooltip="mailto:nguyenthanh@gmail.com"/>
     <hyperlink ref="I2" r:id="rId1" display="https://cms.anhtester.com/users/registration" tooltip="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="I5" r:id="rId6" display="nguyenthanh1743@example.com" tooltip="mailto:nguyenthanh1743@example.com"/>
+    <hyperlink ref="I5" r:id="rId5" display="nguyenthanh1743@example.com" tooltip="mailto:nguyenthanh1743@example.com"/>
     <hyperlink ref="J2" r:id="rId1" display="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="J5" r:id="rId6" display="nguyenthanh1743@example.com" tooltip="mailto:nguyenthanh1743@example.com"/>
-    <hyperlink ref="C5" r:id="rId7" display="{faker_email}" tooltip="mailto:nguyenthanh221515042025@gmail.com"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://cms.anhtester.com/users/login"/>
+    <hyperlink ref="J5" r:id="rId5" display="nguyenthanh1743@example.com" tooltip="mailto:nguyenthanh1743@example.com"/>
+    <hyperlink ref="C5" r:id="rId6" display="{faker_email}" tooltip="mailto:nguyenthanh221515042025@gmail.com"/>
+    <hyperlink ref="C11" r:id="rId7" display="https://cms.anhtester.com/users/login"/>
     <hyperlink ref="K2" r:id="rId1" display="https://cms.anhtester.com/users/registration"/>
-    <hyperlink ref="K5" r:id="rId9" display="nguyenthanh215515042025@example.com" tooltip="mailto:nguyenthanh215515042025@example.com"/>
+    <hyperlink ref="K5" r:id="rId8" display="nguyenthanh215515042025@example.com" tooltip="mailto:nguyenthanh215515042025@example.com"/>
+    <hyperlink ref="D5" r:id="rId6" display="{faker_email}" tooltip="mailto:nguyenthanh221515042025@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2373,22 +2367,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
@@ -2429,7 +2423,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2475,22 +2469,22 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2498,16 +2492,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2518,10 +2512,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -2534,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2543,7 +2537,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>23</v>
@@ -2554,16 +2548,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>23</v>
@@ -2571,10 +2565,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="b">
@@ -2587,10 +2581,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2606,7 +2600,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="9" t="b">
         <v>1</v>
@@ -2633,22 +2627,22 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2762,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
@@ -2894,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -2956,7 +2950,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2964,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="b">
         <v>1</v>
@@ -2976,7 +2970,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2984,7 +2978,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="b">
         <v>1</v>
@@ -2995,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="b">
         <v>1</v>
@@ -3006,7 +3000,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="b">
         <v>1</v>
@@ -3017,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="b">
         <v>1</v>
@@ -3028,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="b">
         <v>1</v>
@@ -3039,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>1</v>
@@ -3051,7 +3045,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
